--- a/biology/Origine et évolution du vivant/Bryophyta_(classification_phylogénétique)/Bryophyta_(classification_phylogénétique).xlsx
+++ b/biology/Origine et évolution du vivant/Bryophyta_(classification_phylogénétique)/Bryophyta_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bryophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Bryophyta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page présente un arbre phylogénétique des Bryophyta (Bryophytes, Mousses), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bryophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Bryophyta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -745,7 +759,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bryophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Bryophyta_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -765,13 +779,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sources bibliographiques de référence
-(en) Neil E. Bell, Dietmar Quandt, Terry J. O'Brien et Angela E. Newton (2007) « Taxonomy and phylogeny in the earliest diverging pleurocarps: square holes and bifurcating pegs », The Bryologist 110 (3), pp. 533–560
+          <t>Sources bibliographiques de référence</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) Neil E. Bell, Dietmar Quandt, Terry J. O'Brien et Angela E. Newton (2007) « Taxonomy and phylogeny in the earliest diverging pleurocarps: square holes and bifurcating pegs », The Bryologist 110 (3), pp. 533–560
 Yin-Long Qiu et al. (2006) « The deepest divergences in land plants inferred from phylogenomic evidence », PNAS 103 (42), pp. 15511-15516
 Neil E. Bell et Angela E. Newton (2005) « The Paraphyly of Hypnodendron and the Phylogeny of Related Non-Hypnanaean Pleurocarpous Mosses Inferred from Chloroplast and Mitochondrial Sequence Data », Systematic Botany 30 (1), pp. 34–51
-Jonathan Shaw et Karen Renzaglia (2004) « Phylogeny and diversification of Bryophytes », American Journal of Botany 91 (10), pp. 1557–1581
-Liens internes
-Bryophyta
+Jonathan Shaw et Karen Renzaglia (2004) « Phylogeny and diversification of Bryophytes », American Journal of Botany 91 (10), pp. 1557–1581</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bryophyta_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bryophyta_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liens internes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bryophyta
 Vivant (classification phylogénétique)
 Eukaryota (classification phylogénétique)
 Archaeplastida (classification phylogénétique)
